--- a/variable_desc.xlsx
+++ b/variable_desc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="1140" windowWidth="29840" windowHeight="18880" tabRatio="500"/>
+    <workbookView xWindow="12960" yWindow="2000" windowWidth="10000" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>Acronym</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Leaf blast</t>
   </si>
   <si>
-    <t>SNL</t>
-  </si>
-  <si>
     <t>RTH</t>
   </si>
   <si>
@@ -294,12 +291,6 @@
   </si>
   <si>
     <t>Rice tungro</t>
-  </si>
-  <si>
-    <t>Snail damage</t>
-  </si>
-  <si>
-    <t>maximum percentage of tillers with snail damge</t>
   </si>
   <si>
     <t>Rice bug injury</t>
@@ -679,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E31"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +806,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -829,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -982,10 +973,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -999,10 +990,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -1065,10 +1056,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
@@ -1085,7 +1076,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -1133,28 +1124,30 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>3</v>
@@ -1165,13 +1158,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>3</v>
@@ -1182,48 +1175,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
